--- a/out.xlsx
+++ b/out.xlsx
@@ -487,7 +487,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="32" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -570,7 +570,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -13105,7 +13105,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -13777,7 +13777,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -19106,7 +19106,7 @@
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19189,7 +19189,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -19357,7 +19357,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -19399,7 +19399,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -19567,7 +19567,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -19777,7 +19777,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -19819,7 +19819,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -20407,7 +20407,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -20659,7 +20659,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -20785,7 +20785,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -20911,7 +20911,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -21121,7 +21121,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -21625,7 +21625,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -21835,7 +21835,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -22003,7 +22003,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -22045,7 +22045,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -24711,7 +24711,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -24837,7 +24837,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -24963,7 +24963,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -25089,7 +25089,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -25383,7 +25383,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -25551,7 +25551,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -25719,7 +25719,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -25929,7 +25929,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -26055,7 +26055,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -26181,7 +26181,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -26307,7 +26307,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -26433,7 +26433,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -26685,7 +26685,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -27302,7 +27302,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -27428,7 +27428,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -27554,7 +27554,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -27680,7 +27680,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -27806,7 +27806,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -27974,7 +27974,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -28142,7 +28142,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -28310,7 +28310,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -30510,7 +30510,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -30552,7 +30552,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -30762,7 +30762,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -31014,7 +31014,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -31056,7 +31056,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -31266,7 +31266,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -31518,7 +31518,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -31560,7 +31560,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -31770,7 +31770,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -32064,7 +32064,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -32274,7 +32274,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Морозов Д.В.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -32442,7 +32442,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -32652,7 +32652,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -32862,7 +32862,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -33072,7 +33072,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -33240,7 +33240,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -33408,7 +33408,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Миньков А.С.</t>
         </is>
       </c>
     </row>
@@ -33732,7 +33732,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -33815,7 +33815,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -33857,7 +33857,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -33899,7 +33899,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -33941,7 +33941,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -33983,7 +33983,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -34025,7 +34025,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -34067,7 +34067,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -34109,7 +34109,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -34193,7 +34193,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -34235,7 +34235,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -34277,7 +34277,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -34319,7 +34319,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -34403,7 +34403,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -34445,7 +34445,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -34979,7 +34979,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35062,7 +35062,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35104,7 +35104,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35146,7 +35146,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35188,7 +35188,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35230,7 +35230,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35272,7 +35272,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35314,7 +35314,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35356,7 +35356,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35469,7 +35469,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35553,7 +35553,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35637,7 +35637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35721,7 +35721,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35805,7 +35805,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -35931,7 +35931,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -36057,7 +36057,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -36183,7 +36183,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37053,7 +37053,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -37136,7 +37136,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37178,7 +37178,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -37258,7 +37258,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37300,7 +37300,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -37380,7 +37380,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37422,7 +37422,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -37502,7 +37502,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37544,7 +37544,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -37624,7 +37624,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37666,7 +37666,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -37746,7 +37746,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -37868,7 +37868,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -37910,7 +37910,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -37990,7 +37990,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -38032,7 +38032,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -39060,7 +39060,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -39227,7 +39227,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -39311,7 +39311,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -39479,7 +39479,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -39563,7 +39563,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -39647,7 +39647,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -39731,7 +39731,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40055,7 +40055,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -40138,7 +40138,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40180,7 +40180,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40222,7 +40222,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40264,7 +40264,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40306,7 +40306,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40348,7 +40348,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40390,7 +40390,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40432,7 +40432,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40462,7 +40462,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -40545,7 +40545,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40587,7 +40587,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40629,7 +40629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40671,7 +40671,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40713,7 +40713,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40797,7 +40797,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -40839,7 +40839,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -41205,7 +41205,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -41288,7 +41288,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -41414,7 +41414,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -41456,7 +41456,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -41582,7 +41582,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -41624,7 +41624,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -41750,7 +41750,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -41792,7 +41792,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -41918,7 +41918,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -41960,7 +41960,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -42086,7 +42086,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -42128,7 +42128,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -42254,7 +42254,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -42296,7 +42296,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -42422,7 +42422,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -42464,7 +42464,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -42590,7 +42590,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -42872,7 +42872,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -42955,7 +42955,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -42997,7 +42997,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -43039,7 +43039,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -43081,7 +43081,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -43123,7 +43123,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -43165,7 +43165,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -43207,7 +43207,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -43249,7 +43249,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -43291,7 +43291,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -43333,7 +43333,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -43375,7 +43375,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -43417,7 +43417,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -43615,7 +43615,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -43740,7 +43740,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -43824,7 +43824,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -43992,7 +43992,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -44076,7 +44076,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -44160,7 +44160,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -44244,7 +44244,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -44328,7 +44328,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Щеглов А.В.</t>
         </is>
       </c>
     </row>
@@ -45017,7 +45017,7 @@
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -45100,7 +45100,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -45226,7 +45226,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -45352,7 +45352,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -45478,7 +45478,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -45604,7 +45604,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -45688,7 +45688,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -45814,7 +45814,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -45898,7 +45898,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -46024,7 +46024,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -46108,7 +46108,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -46234,7 +46234,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Морозов Д.В.</t>
         </is>
       </c>
     </row>
@@ -46318,7 +46318,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -47608,7 +47608,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -47691,7 +47691,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -47733,7 +47733,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -47855,7 +47855,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -47897,7 +47897,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -48019,7 +48019,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -48061,7 +48061,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -48183,7 +48183,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -48225,7 +48225,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -48347,7 +48347,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -48389,7 +48389,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -48511,7 +48511,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -48553,7 +48553,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -48717,7 +48717,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -48839,7 +48839,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -48881,7 +48881,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -50455,7 +50455,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="32" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -51840,7 +51840,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -52122,7 +52122,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="42" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -52205,7 +52205,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -52289,7 +52289,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -52373,7 +52373,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -52457,7 +52457,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -52541,7 +52541,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -52625,7 +52625,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -52709,7 +52709,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -52793,7 +52793,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -53452,7 +53452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -53578,7 +53578,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -53704,7 +53704,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -53830,7 +53830,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -53956,7 +53956,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -54166,7 +54166,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -54376,7 +54376,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -54586,7 +54586,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -56212,7 +56212,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="42" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -56379,7 +56379,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -56505,7 +56505,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -56631,7 +56631,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -56757,7 +56757,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -56883,7 +56883,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -57009,7 +57009,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -57135,7 +57135,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -57261,7 +57261,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -58551,7 +58551,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -58676,7 +58676,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -58798,7 +58798,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -58920,7 +58920,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -59042,7 +59042,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -59164,7 +59164,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -59286,7 +59286,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -59408,7 +59408,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -59530,7 +59530,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -60137,7 +60137,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -60347,7 +60347,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -60557,7 +60557,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -60767,7 +60767,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -60977,7 +60977,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -61187,7 +61187,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -61397,7 +61397,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -61607,7 +61607,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -63556,7 +63556,7 @@
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="42" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -63639,7 +63639,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -63765,7 +63765,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -63849,7 +63849,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -63975,7 +63975,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -64059,7 +64059,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -64185,7 +64185,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -64269,7 +64269,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -64395,7 +64395,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -64479,7 +64479,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -64605,7 +64605,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -64731,7 +64731,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -64857,7 +64857,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -64983,7 +64983,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -65109,7 +65109,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -65235,7 +65235,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -65361,7 +65361,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -66651,7 +66651,7 @@
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -66776,7 +66776,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -66818,7 +66818,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -66944,7 +66944,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -66986,7 +66986,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -67112,7 +67112,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -67154,7 +67154,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -67280,7 +67280,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -67322,7 +67322,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -67448,7 +67448,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -67490,7 +67490,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -67616,7 +67616,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -67658,7 +67658,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -67784,7 +67784,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -67826,7 +67826,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -67952,7 +67952,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -67994,7 +67994,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -68120,7 +68120,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -68288,7 +68288,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -68456,7 +68456,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -68624,7 +68624,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Умняшкин О.В.</t>
         </is>
       </c>
     </row>
@@ -68834,7 +68834,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -69044,7 +69044,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -71497,7 +71497,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="32" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -71580,7 +71580,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -71664,7 +71664,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -71748,7 +71748,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -71832,7 +71832,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72084,7 +72084,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72126,7 +72126,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72168,7 +72168,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72210,7 +72210,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72240,7 +72240,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -72323,7 +72323,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72365,7 +72365,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72407,7 +72407,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72449,7 +72449,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72491,7 +72491,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72533,7 +72533,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72575,7 +72575,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -72617,7 +72617,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -77580,7 +77580,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -77786,7 +77786,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -77992,7 +77992,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -78198,7 +78198,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -78404,7 +78404,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -78610,7 +78610,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -78816,7 +78816,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -79022,7 +79022,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -79968,7 +79968,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -80132,7 +80132,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -80680,7 +80680,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -80763,7 +80763,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -80805,7 +80805,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -80889,7 +80889,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -80931,7 +80931,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -81015,7 +81015,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -81057,7 +81057,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -81141,7 +81141,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -81183,7 +81183,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -81267,7 +81267,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -81351,7 +81351,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -81435,7 +81435,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -81519,7 +81519,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -81603,7 +81603,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -81687,7 +81687,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -81771,7 +81771,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -81855,7 +81855,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -85022,7 +85022,7 @@
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -85105,7 +85105,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -85231,7 +85231,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -85357,7 +85357,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -85483,7 +85483,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -85609,7 +85609,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -85693,7 +85693,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -85777,7 +85777,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -85861,7 +85861,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -85945,7 +85945,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -86029,7 +86029,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
@@ -86113,7 +86113,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Некрасова Л.Д.</t>
+          <t>Кузнецов А.А.</t>
         </is>
       </c>
     </row>
@@ -86197,7 +86197,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Гладковская А.Ю.</t>
+          <t>Попова И.О.</t>
         </is>
       </c>
     </row>
